--- a/reports/spambase/cross_std.xlsx
+++ b/reports/spambase/cross_std.xlsx
@@ -547,64 +547,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0156544970740894</v>
+        <v>0.01641006361276646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01367599510861516</v>
+        <v>0.01423964339152014</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01299927144446681</v>
+        <v>0.01352564846398643</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01326585202946057</v>
+        <v>0.01255576653119753</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01410945528037254</v>
+        <v>0.01397324573672963</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01213009940967082</v>
+        <v>0.01383637783409615</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01208356341909281</v>
+        <v>0.01241982832242391</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0113025140545145</v>
+        <v>0.01421286136195187</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01183596064463459</v>
+        <v>0.01318734934382443</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01045447109233934</v>
+        <v>0.01128012529556894</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008693164634919046</v>
+        <v>0.01173382748719781</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009372638315185316</v>
+        <v>0.01094855242140098</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01080892139123472</v>
+        <v>0.01073328013164818</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009101128008356043</v>
+        <v>0.009806892078231403</v>
       </c>
       <c r="P2" t="n">
-        <v>0.008477477529461756</v>
+        <v>0.01067985918278754</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01464833352877837</v>
+        <v>0.0145948144582754</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01322244575538155</v>
+        <v>0.01208446452318284</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01115076786404608</v>
+        <v>0.01225700731686363</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01124146898141335</v>
+        <v>0.01180209050195234</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008469276580487203</v>
+        <v>0.009641399751925466</v>
       </c>
     </row>
     <row r="3">
@@ -614,64 +614,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01916980345801171</v>
+        <v>0.0210308634733565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01095236478074501</v>
+        <v>0.01437248043754535</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01262573837068205</v>
+        <v>0.01397300943562238</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01202981791940537</v>
+        <v>0.01265781221586553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01844299267138444</v>
+        <v>0.01791173715206867</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01225879131227526</v>
+        <v>0.01397032398988952</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01245699572727597</v>
+        <v>0.01282339870881618</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01145218645077879</v>
+        <v>0.01453028427692843</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0148211800617824</v>
+        <v>0.01702650160409173</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009675128209241445</v>
+        <v>0.01137642669564968</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009151000132466329</v>
+        <v>0.01196166481731189</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00954821806911706</v>
+        <v>0.0110607643361759</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01379473450819611</v>
+        <v>0.01325666897424471</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009100445644916804</v>
+        <v>0.009693659123945876</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00848071238758279</v>
+        <v>0.0107637024393292</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01979652176020228</v>
+        <v>0.01863098596166335</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01321525257881204</v>
+        <v>0.01220738524569419</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01182703752518278</v>
+        <v>0.01250253498537693</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0118401826089292</v>
+        <v>0.01195481928550562</v>
       </c>
       <c r="U3" t="n">
-        <v>0.008514419637169634</v>
+        <v>0.00954755640504781</v>
       </c>
     </row>
     <row r="4">
@@ -681,64 +681,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02758690284248835</v>
+        <v>0.02944284324507971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01653010807484486</v>
+        <v>0.02017174313236429</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01737430905719043</v>
+        <v>0.0193018670653282</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01957794032032032</v>
+        <v>0.01802342544888062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02037610062154741</v>
+        <v>0.02397611854452738</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01695199513524633</v>
+        <v>0.01794452628000166</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0150237836015864</v>
+        <v>0.01480167014272214</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01446319908811885</v>
+        <v>0.01638856166177802</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01843468991252757</v>
+        <v>0.02094509480413904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01400585352527883</v>
+        <v>0.01484172851820238</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01185122602032164</v>
+        <v>0.01445692373884159</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0126547294348696</v>
+        <v>0.01387822221910589</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01788799282488423</v>
+        <v>0.02188612431646431</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01238272056280334</v>
+        <v>0.01488119181861037</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01256301304824009</v>
+        <v>0.01342861276434801</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02126503761825963</v>
+        <v>0.02493791948004469</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01869464024624726</v>
+        <v>0.01661323581146488</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01378453133259294</v>
+        <v>0.0146354857752745</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01441292592392396</v>
+        <v>0.01515263543420894</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01192974727610668</v>
+        <v>0.01439083620308873</v>
       </c>
     </row>
     <row r="5">
@@ -748,64 +748,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02745419153535503</v>
+        <v>0.02914501577892596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02043940820378911</v>
+        <v>0.02050109451946946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01835055093065175</v>
+        <v>0.02289856768856558</v>
       </c>
       <c r="E5" t="n">
-        <v>0.017683504278913</v>
+        <v>0.01815805651779272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0268597857306138</v>
+        <v>0.02436815717248783</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01970212688889323</v>
+        <v>0.02026516999183142</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01994228249220101</v>
+        <v>0.01988681775738449</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01824460092068367</v>
+        <v>0.02128988404724532</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02293833976565288</v>
+        <v>0.02338382554134578</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01280482545472848</v>
+        <v>0.01727393052395159</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01335034120792969</v>
+        <v>0.0176593548117537</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01359900194961793</v>
+        <v>0.01630243084250191</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01932575605880861</v>
+        <v>0.01852129959398188</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01317810386713231</v>
+        <v>0.01479157435600341</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01240872521567999</v>
+        <v>0.01575611938109601</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02919701121375233</v>
+        <v>0.02506962903283699</v>
       </c>
       <c r="R5" t="n">
-        <v>0.017390203606016</v>
+        <v>0.01899329927661186</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01989732616076201</v>
+        <v>0.01779172410436854</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01976488548596459</v>
+        <v>0.01790195350960747</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01300218482407122</v>
+        <v>0.01351327889997284</v>
       </c>
     </row>
   </sheetData>

--- a/reports/spambase/cross_std.xlsx
+++ b/reports/spambase/cross_std.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -130,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +420,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DT_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DT_GAN</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DT_SMOTE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LR_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LR_GAN</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LR_SMOTE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RF_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RF_GAN</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RF_SMOTE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XGB</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_GAN</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_GAN</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_SMOTE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.02004289555044656</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01478337536660655</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01362418957435368</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01461201816089038</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01798786875019942</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01338543933721611</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01385065888865921</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01441998852872188</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01629751142278662</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01166955416651855</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01168009117791617</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01046180017350337</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0166353156778378</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.009852495292468072</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.01100413455325247</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.01816275817849432</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01288920620969662</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.01221853368720431</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.01268037593964712</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.01047789905657684</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02836858430781072</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01972267689262281</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02014485310708347</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01829801255893182</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02267213826273713</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01584705932952159</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01450051269608485</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0158723961661709</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01888891937237199</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01269533672126035</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01236757707991139</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01311863561243049</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.02031730876570363</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.01330373445965938</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01318655377013439</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.02183958317458892</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01479328828426439</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.01326095756499711</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.01521464620073251</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.01253779908631122</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03462066716426537</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02105879502506925</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02173738373563876</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02215017939882922</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02504761342376399</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02015737882013586</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02086584406147442</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02046853789747849</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02605592212132322</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/reports/spambase/cross_std.xlsx
+++ b/reports/spambase/cross_std.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,181 +543,270 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02004289555044656</v>
+        <v>0.01530804720895512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01478337536660655</v>
+        <v>0.01466992033968988</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01362418957435368</v>
+        <v>0.01337460869662935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01461201816089038</v>
+        <v>0.01427636769388275</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01798786875019942</v>
+        <v>0.01423075867525074</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01338543933721611</v>
+        <v>0.0131279286413115</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01385065888865921</v>
+        <v>0.01338955865227671</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01441998852872188</v>
+        <v>0.01406182558741526</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01629751142278662</v>
+        <v>0.01264850254317851</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01166955416651855</v>
+        <v>0.01137314528795768</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01168009117791617</v>
+        <v>0.01129575352847617</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01046180017350337</v>
+        <v>0.01025476198975069</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0166353156778378</v>
+        <v>0.01327399333478925</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009852495292468072</v>
+        <v>0.009851250128838869</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01100413455325247</v>
+        <v>0.01092041813826263</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01816275817849432</v>
+        <v>0.01399902058180206</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01288920620969662</v>
+        <v>0.01259360465266996</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01221853368720431</v>
+        <v>0.01188665025114843</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01268037593964712</v>
+        <v>0.01249759871659631</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01047789905657684</v>
+        <v>0.01038283886727641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>precision</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02836858430781072</v>
+        <v>0.02004289555044656</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01972267689262281</v>
+        <v>0.01478337536660655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02014485310708347</v>
+        <v>0.01362418957435368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01829801255893182</v>
+        <v>0.01461201816089038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02267213826273713</v>
+        <v>0.01798786875019942</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01584705932952159</v>
+        <v>0.01338543933721611</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01450051269608485</v>
+        <v>0.01385065888865921</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0158723961661709</v>
+        <v>0.01441998852872188</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01888891937237199</v>
+        <v>0.01629751142278662</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01269533672126035</v>
+        <v>0.01166955416651855</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01236757707991139</v>
+        <v>0.01168009117791617</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01311863561243049</v>
+        <v>0.01046180017350337</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02031730876570363</v>
+        <v>0.0166353156778378</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01330373445965938</v>
+        <v>0.009852495292468072</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01318655377013439</v>
+        <v>0.01100413455325247</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02183958317458892</v>
+        <v>0.01816275817849432</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01479328828426439</v>
+        <v>0.01288920620969662</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01326095756499711</v>
+        <v>0.01221853368720431</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01521464620073251</v>
+        <v>0.01268037593964712</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01253779908631122</v>
+        <v>0.01047789905657684</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02836858430781072</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01972267689262281</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02014485310708347</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01829801255893182</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02267213826273713</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01584705932952159</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01450051269608485</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0158723961661709</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01888891937237199</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01269533672126035</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01236757707991139</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01311863561243049</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.02031730876570363</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01330373445965938</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01318655377013439</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.02183958317458892</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01479328828426439</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.01326095756499711</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.01521464620073251</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.01253779908631122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>recall</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>0.03462066716426537</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>0.02105879502506925</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02173738373563876</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>0.02215017939882922</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>0.02504761342376399</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>0.02015737882013586</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>0.02086584406147442</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>0.02046853789747849</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>0.02605592212132322</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0.01802738346431141</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.01818190323369265</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01638857895960303</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.02415165900728543</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01408335162201348</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.01502844777645489</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.02888632261252498</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.01967139076953397</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.01821526814858638</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.01830295833688422</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.01492567064831297</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
